--- a/medicine/Psychotrope/Brasserie_de_la_Brière/Brasserie_de_la_Brière.xlsx
+++ b/medicine/Psychotrope/Brasserie_de_la_Brière/Brasserie_de_la_Brière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brasserie_de_la_Bri%C3%A8re</t>
+          <t>Brasserie_de_la_Brière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie de la Brière était une brasserie, créée en 1999 et située à Saint-Lyphard, en Loire-Atlantique, produisant des bières artisanales[1],[2]. En 2011, elle cesse toute activité, le matériel étant transféré à la « brasserie du Marais poitevin » à Coulon dans les Deux-Sèvres[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie de la Brière était une brasserie, créée en 1999 et située à Saint-Lyphard, en Loire-Atlantique, produisant des bières artisanales,. En 2011, elle cesse toute activité, le matériel étant transféré à la « brasserie du Marais poitevin » à Coulon dans les Deux-Sèvres.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brasserie_de_la_Bri%C3%A8re</t>
+          <t>Brasserie_de_la_Brière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Toutes les bières produites détenaient les labels bio Label Agriculture biologique et Nature et progrès :
 Dàna : 5 % alc/vol bière blanche :
-Morta : 5,5 % alc/vol bière ambrée, médaille de bronze au Concours général agricole au salon international de l'agriculture en 2011[2] ;
+Morta : 5,5 % alc/vol bière ambrée, médaille de bronze au Concours général agricole au salon international de l'agriculture en 2011 ;
 Thorella : 5,5 % alc/vol bière blonde ;
 Typha : 6 % alc/vol bière blonde ;
 Aérouant Du : 5 % alc/vol bière brune ;
-La Paludière : 5 % alc/vol bière blonde au caramel au beurre salé[1] ;
+La Paludière : 5 % alc/vol bière blonde au caramel au beurre salé ;
 Bière de Noël : 7 % alc/vol bière dorée.</t>
         </is>
       </c>
